--- a/biology/Zoologie/Chironominae/Chironominae.xlsx
+++ b/biology/Zoologie/Chironominae/Chironominae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Chironominae sont une sous-famille de diptères nématocères de la famille des Chironomidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Chironominae sont une sous-famille de diptères nématocères de la famille des Chironomidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette sous-famille est attribuée en 1838 à l'entomologiste français Pierre Justin Marie Macquart (1778-1855)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-famille est attribuée en 1838 à l'entomologiste français Pierre Justin Marie Macquart (1778-1855).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des tribus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon l’ITIS[2] cette sous-famille se divise en trois tribus :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon l’ITIS cette sous-famille se divise en trois tribus :
 Chironomini Macquart, 1838
 Pseudochironomini Saether 1977
 Tanytarsini Zavrel 1917</t>
@@ -575,7 +591,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tribu des Chironomini Macquart, 1838
@@ -622,7 +640,7 @@
 Tribu des Pseudochironomini Saether 1977
 Pseudochironomus Malloch, 1915
 Tribu des Tanytarsini Zavrel 1917
-Afrozavrelia Harrison, 2004[3]
+Afrozavrelia Harrison, 2004
 Cladotanytarsus Kieffer, 1921
 Corynocera Zetterstedt, 1838
 Micropsectra Kieffer, 1909
@@ -631,10 +649,10 @@
 Paratanytarsus Thienemann &amp; Bause, 1913
 Rheotanytarsus Thienemann &amp; Bause, 1913
 Stempellina Thienemann &amp; Bause, 1913
-Stempellinella Brundin, 1947[3]
+Stempellinella Brundin, 1947
 Tanytarsus van der Wulp, 1874
 Virgatanytarsus Pinder, 1982
-Zavrelia Kieffer, 1913[3],[4]
+Zavrelia Kieffer, 1913,
 </t>
         </is>
       </c>
